--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\CIAE_DNP_NRG\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4BF1EE-822F-42B4-8B4E-F444019E27DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089EA4CD-0396-48B2-9C59-52CC0ADE65C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -169,12 +169,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,12 +206,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAEAA1E-5B6B-4FC7-9FE5-6150E51A1A48}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -527,8 +544,9 @@
     <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -563,15 +581,15 @@
         <v>#of Lines</v>
       </c>
       <c r="H1" s="1" t="str">
-        <f>G1</f>
+        <f t="shared" ref="H1:H14" si="0">G1</f>
         <v>#of Lines</v>
       </c>
       <c r="I1" s="1" t="str">
-        <f>H19</f>
+        <f t="shared" ref="I1:I14" si="1">H19</f>
         <v>#of Datasets</v>
       </c>
       <c r="J1" s="1" t="str">
-        <f>I1</f>
+        <f t="shared" ref="J1:J14" si="2">I1</f>
         <v>#of Datasets</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -605,15 +623,15 @@
         <v>G Records</v>
       </c>
       <c r="H2" s="1">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>H20</f>
+        <f t="shared" si="1"/>
         <v>(non-Adopted)</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>I2</f>
+        <f t="shared" si="2"/>
         <v>(non-Adopted)</v>
       </c>
     </row>
@@ -629,31 +647,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:H3" si="0">D21</f>
+        <f t="shared" ref="D3:G3" si="3">D21</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f>G3</f>
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
-        <f>H21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f>I3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -663,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M14" si="1">L3</f>
+        <f t="shared" ref="M3:M14" si="4">L3</f>
         <v>8</v>
       </c>
     </row>
@@ -675,35 +693,35 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:H4" si="2">C22</f>
+        <f t="shared" ref="C4:G4" si="5">C22</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="H4" s="2">
-        <f>G4</f>
-        <v>93</v>
-      </c>
-      <c r="I4" s="1">
-        <f>H22</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <f>I4</f>
         <v>1</v>
       </c>
       <c r="K4" s="1">
@@ -713,7 +731,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -725,35 +743,35 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:H5" si="3">C23</f>
+        <f t="shared" ref="C5:G5" si="6">C23</f>
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
       <c r="H5" s="2">
-        <f>G5</f>
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="I5" s="1">
-        <f>H23</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K5" s="1">
@@ -763,7 +781,7 @@
         <v>57</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
     </row>
@@ -775,35 +793,35 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:H6" si="4">C24</f>
+        <f t="shared" ref="C6:G6" si="7">C24</f>
         <v>8</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>258</v>
       </c>
       <c r="H6" s="2">
-        <f>G6</f>
+        <f t="shared" si="0"/>
         <v>258</v>
       </c>
       <c r="I6" s="1">
-        <f>H24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <f>I6</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K6" s="1">
@@ -813,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -825,35 +843,35 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:H7" si="5">C25</f>
+        <f t="shared" ref="C7:G7" si="8">C25</f>
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>386</v>
       </c>
       <c r="H7" s="2">
-        <f>G7</f>
+        <f t="shared" si="0"/>
         <v>386</v>
       </c>
       <c r="I7" s="1">
-        <f>H25</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J7" s="2">
-        <f>I7</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K7" s="1">
@@ -863,60 +881,60 @@
         <v>65</v>
       </c>
       <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:G8" si="9">C26</f>
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="9"/>
+        <v>398</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:H8" si="6">C26</f>
-        <v>27</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="6"/>
-        <v>398</v>
-      </c>
-      <c r="H8" s="2">
-        <f>G8</f>
-        <v>398</v>
-      </c>
-      <c r="I8" s="1">
-        <f>H26</f>
         <v>7</v>
       </c>
-      <c r="J8" s="2">
-        <f>I8</f>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>6</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>72</v>
       </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <v>20250324</v>
       </c>
     </row>
@@ -928,35 +946,35 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:H9" si="7">C27</f>
+        <f t="shared" ref="C9:G9" si="10">C27</f>
         <v>141</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>393</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1043</v>
       </c>
       <c r="H9" s="2">
-        <f>G9</f>
+        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="I9" s="1">
-        <f>H27</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f>I9</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K9" s="1">
@@ -966,7 +984,7 @@
         <v>306</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
     </row>
@@ -978,35 +996,35 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:H10" si="8">C28</f>
+        <f t="shared" ref="C10:G10" si="11">C28</f>
         <v>352</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1136</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1042</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2396</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6896</v>
       </c>
       <c r="H10" s="2">
-        <f>G10</f>
+        <f t="shared" si="0"/>
         <v>6896</v>
       </c>
       <c r="I10" s="1">
-        <f>H28</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J10" s="2">
-        <f>I10</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K10" s="1">
@@ -1016,59 +1034,60 @@
         <v>589</v>
       </c>
       <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:G11" si="12">C29</f>
+        <v>45</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="12"/>
+        <v>639</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>639</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:H11" si="9">C29</f>
-        <v>45</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="9"/>
-        <v>144</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="9"/>
-        <v>639</v>
-      </c>
-      <c r="H11" s="2">
-        <f>G11</f>
-        <v>639</v>
-      </c>
-      <c r="I11" s="1">
-        <f>H29</f>
         <v>9</v>
       </c>
-      <c r="J11" s="2">
-        <f>I11</f>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>190</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1078,35 +1097,35 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:H12" si="10">C30</f>
+        <f t="shared" ref="C12:G12" si="13">C30</f>
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>165</v>
       </c>
       <c r="H12" s="2">
-        <f>G12</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="I12" s="1">
-        <f>H30</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f>I12</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K12" s="1">
@@ -1116,7 +1135,7 @@
         <v>58</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
     </row>
@@ -1128,35 +1147,35 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:H14" si="11">C31</f>
+        <f t="shared" ref="C13:G14" si="14">C31</f>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="H13" s="2">
-        <f>G13</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="I13" s="1">
-        <f>H31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <f>I13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
@@ -1166,7 +1185,7 @@
         <v>33</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
@@ -1178,35 +1197,35 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>H32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <f>I14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="1">
@@ -1216,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -1518,27 +1537,27 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3">
-        <f>SUM(C22:C31)</f>
+        <f t="shared" ref="C33:H33" si="15">SUM(C22:C31)</f>
         <v>619</v>
       </c>
       <c r="D33" s="3">
-        <f>SUM(D22:D31)</f>
+        <f t="shared" si="15"/>
         <v>1365</v>
       </c>
       <c r="E33" s="3">
-        <f>SUM(E22:E31)</f>
+        <f t="shared" si="15"/>
         <v>1793</v>
       </c>
       <c r="F33" s="3">
-        <f>SUM(F22:F31)</f>
+        <f t="shared" si="15"/>
         <v>2941</v>
       </c>
       <c r="G33" s="3">
-        <f>SUM(G22:G31)</f>
+        <f t="shared" si="15"/>
         <v>10158</v>
       </c>
       <c r="H33" s="3">
-        <f>SUM(H22:H31)</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
     </row>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089EA4CD-0396-48B2-9C59-52CC0ADE65C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C245EF5-AE05-4178-9556-58A90CBAC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +216,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,9 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAEAA1E-5B6B-4FC7-9FE5-6150E51A1A48}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -550,92 +561,93 @@
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="str">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="str">
         <f>C19</f>
         <v>#of Adopted</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="6" t="str">
         <f>D19</f>
         <v>#of Adopted</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="6" t="str">
         <f>E19</f>
         <v>#of All</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="6" t="str">
         <f>F19</f>
         <v>#of All</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="6" t="str">
         <f>G19</f>
         <v>#of Lines</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="6" t="str">
         <f t="shared" ref="H1:H14" si="0">G1</f>
         <v>#of Lines</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="I1" s="6" t="str">
         <f t="shared" ref="I1:I14" si="1">H19</f>
         <v>#of Datasets</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="6" t="str">
         <f t="shared" ref="J1:J14" si="2">I1</f>
         <v>#of Datasets</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="str">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="str">
         <f>C20</f>
         <v>Levels</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="6" t="str">
         <f>D20</f>
         <v>Gammas</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="6" t="str">
         <f>E20</f>
         <v>L Records</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="6" t="str">
         <f>F20</f>
         <v>G Records</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="6" t="str">
         <f t="shared" si="1"/>
         <v>(non-Adopted)</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="6" t="str">
         <f t="shared" si="2"/>
         <v>(non-Adopted)</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -685,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -735,7 +747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -785,7 +797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13</v>
       </c>
@@ -835,7 +847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -885,7 +897,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>15</v>
       </c>
@@ -937,8 +949,11 @@
       <c r="N8" s="4">
         <v>20250324</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -1088,8 +1103,11 @@
         <v>190</v>
       </c>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>21</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C245EF5-AE05-4178-9556-58A90CBAC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB270C3-0F54-41FC-B315-02926BFC9DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -949,7 +949,7 @@
       <c r="N8" s="4">
         <v>20250324</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1102,59 +1102,65 @@
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="1">
+      <c r="N11" s="4">
+        <v>20250425</v>
+      </c>
+      <c r="O11" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:G12" si="13">C30</f>
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>58</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5">
         <f t="shared" si="4"/>
         <v>58</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB270C3-0F54-41FC-B315-02926BFC9DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B33BB8-2BA1-454B-8213-6A4DB29A8916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1096,11 +1096,11 @@
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N11" s="4">
         <v>20250425</v>
@@ -1152,11 +1152,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B33BB8-2BA1-454B-8213-6A4DB29A8916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913C011-57FF-4C89-ADF3-BD664FB0A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1164,54 +1164,56 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <f t="shared" ref="C13:G14" si="14">C31</f>
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>33</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913C011-57FF-4C89-ADF3-BD664FB0A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED1121-9CFD-435B-AED3-7A6043D1771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1106,7 @@
         <v>20250425</v>
       </c>
       <c r="O11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,9 @@
         <v>33</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED1121-9CFD-435B-AED3-7A6043D1771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F8F2E-C7B7-4304-927F-B98A6F2E6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>35Ne</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>#of Adopted</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>11NDS</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,25 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -201,24 +213,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -229,6 +250,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5353"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
@@ -540,1052 +562,1155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAEAA1E-5B6B-4FC7-9FE5-6150E51A1A48}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="str">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="str">
         <f>C19</f>
         <v>#of Adopted</v>
       </c>
-      <c r="D1" s="6" t="str">
+      <c r="D1" s="4" t="str">
         <f>D19</f>
         <v>#of Adopted</v>
       </c>
-      <c r="E1" s="6" t="str">
+      <c r="E1" s="4" t="str">
         <f>E19</f>
         <v>#of All</v>
       </c>
-      <c r="F1" s="6" t="str">
+      <c r="F1" s="4" t="str">
         <f>F19</f>
         <v>#of All</v>
       </c>
-      <c r="G1" s="6" t="str">
+      <c r="G1" s="4" t="str">
         <f>G19</f>
         <v>#of Lines</v>
       </c>
-      <c r="H1" s="6" t="str">
+      <c r="H1" s="4" t="str">
         <f t="shared" ref="H1:H14" si="0">G1</f>
         <v>#of Lines</v>
       </c>
-      <c r="I1" s="6" t="str">
-        <f t="shared" ref="I1:I14" si="1">H19</f>
+      <c r="I1" s="4" t="str">
+        <f>H19</f>
         <v>#of Datasets</v>
       </c>
-      <c r="J1" s="6" t="str">
-        <f t="shared" ref="J1:J14" si="2">I1</f>
+      <c r="J1" s="4" t="str">
+        <f>I1</f>
         <v>#of Datasets</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="str">
+      <c r="N1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="str">
+        <f>J1</f>
+        <v>#of Datasets</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="str">
         <f>C20</f>
         <v>Levels</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="4" t="str">
         <f>D20</f>
         <v>Gammas</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="4" t="str">
         <f>E20</f>
         <v>L Records</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="4" t="str">
         <f>F20</f>
         <v>G Records</v>
       </c>
-      <c r="H2" s="6">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ref="I1:I14" si="1">H20</f>
         <v>(non-Adopted)</v>
       </c>
-      <c r="J2" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J1:J14" si="2">I2</f>
         <v>(non-Adopted)</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="str">
+        <f>J2</f>
+        <v>(non-Adopted)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:G3" si="3">D21</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="8">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>8</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M14" si="4">L3</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="4">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <f>O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:G4" si="5">C22</f>
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>31</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="8">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O10" si="6">I4</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P14" si="7">O4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:G5" si="6">C23</f>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:G5" si="8">C23</f>
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>57</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:G6" si="9">C24</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>48</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:G7" si="10">C25</f>
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="10"/>
+        <v>386</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>65</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="6"/>
-        <v>243</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>57</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:G6" si="7">C24</f>
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="P7" s="8">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:G8" si="11">C26</f>
         <v>27</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="7"/>
-        <v>258</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1">
-        <v>48</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ref="C7:G7" si="8">C25</f>
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="8"/>
-        <v>386</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>65</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8:G8" si="9">C26</f>
-        <v>27</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="9"/>
+      <c r="D8" s="5">
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="9"/>
+      <c r="E8" s="5">
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="9"/>
+      <c r="F8" s="5">
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="9"/>
+      <c r="G8" s="5">
+        <f t="shared" si="11"/>
         <v>398</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>72</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="9">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>20250324</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" ref="C9:G9" si="10">C27</f>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:G9" si="12">C27</f>
         <v>141</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="10"/>
+      <c r="D9" s="4">
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="10"/>
+      <c r="E9" s="4">
+        <f t="shared" si="12"/>
         <v>393</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="10"/>
+      <c r="F9" s="4">
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="10"/>
+      <c r="G9" s="4">
+        <f t="shared" si="12"/>
         <v>1043</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>306</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="8">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:G10" si="11">C28</f>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:G10" si="13">C28</f>
         <v>352</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="11"/>
+      <c r="D10" s="4">
+        <f t="shared" si="13"/>
         <v>1136</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="11"/>
+      <c r="E10" s="4">
+        <f t="shared" si="13"/>
         <v>1042</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="11"/>
+      <c r="F10" s="4">
+        <f t="shared" si="13"/>
         <v>2396</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="11"/>
+      <c r="G10" s="4">
+        <f t="shared" si="13"/>
         <v>6896</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>6896</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>10</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>589</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="8">
         <f t="shared" si="4"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="O10" s="4">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:G11" si="12">C29</f>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:G11" si="14">C29</f>
         <v>45</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="12"/>
+      <c r="D11" s="5">
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="12"/>
+      <c r="E11" s="5">
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="12"/>
+      <c r="F11" s="5">
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="12"/>
+      <c r="G11" s="5">
+        <f t="shared" si="14"/>
         <v>639</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>639</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>192</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="9">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>20250425</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="P11" s="9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:G12" si="13">C30</f>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:G12" si="15">C30</f>
         <v>14</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="13"/>
+      <c r="D12" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="13"/>
+      <c r="F12" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="15"/>
         <v>165</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>60</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="9">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4">
+      <c r="N12" s="5">
+        <v>20250506</v>
+      </c>
+      <c r="O12" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="P12" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:G14" si="14">C31</f>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:G14" si="16">C31</f>
         <v>1</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="14"/>
+      <c r="D13" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="14"/>
+      <c r="F13" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>33</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="9">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
+      <c r="N13" s="5">
+        <v>20250502</v>
+      </c>
+      <c r="O13" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="P13" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="C14" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
         <v>9</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="9">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3" t="s">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>93</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="6">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6">
+        <v>243</v>
+      </c>
+      <c r="H23" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6">
+        <v>27</v>
+      </c>
+      <c r="G24" s="6">
+        <v>258</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6">
+        <v>386</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6">
+        <v>398</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="6">
+        <v>141</v>
+      </c>
+      <c r="D27" s="6">
+        <v>136</v>
+      </c>
+      <c r="E27" s="6">
+        <v>393</v>
+      </c>
+      <c r="F27" s="6">
+        <v>310</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1043</v>
+      </c>
+      <c r="H27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6">
+        <v>352</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1136</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1042</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2396</v>
+      </c>
+      <c r="G28" s="6">
+        <v>6896</v>
+      </c>
+      <c r="H28" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6">
+        <v>144</v>
+      </c>
+      <c r="F29" s="6">
+        <v>92</v>
+      </c>
+      <c r="G29" s="6">
+        <v>639</v>
+      </c>
+      <c r="H29" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>35</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>165</v>
+      </c>
+      <c r="H30" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>93</v>
-      </c>
-      <c r="H22" s="3">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
-        <v>243</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3">
-        <v>27</v>
-      </c>
-      <c r="G24" s="3">
-        <v>258</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
-        <v>53</v>
-      </c>
-      <c r="F25" s="3">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3">
-        <v>386</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3">
-        <v>80</v>
-      </c>
-      <c r="F26" s="3">
-        <v>70</v>
-      </c>
-      <c r="G26" s="3">
-        <v>398</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3">
-        <v>141</v>
-      </c>
-      <c r="D27" s="3">
-        <v>136</v>
-      </c>
-      <c r="E27" s="3">
-        <v>393</v>
-      </c>
-      <c r="F27" s="3">
-        <v>310</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1043</v>
-      </c>
-      <c r="H27" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3">
-        <v>352</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1136</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1042</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2396</v>
-      </c>
-      <c r="G28" s="3">
-        <v>6896</v>
-      </c>
-      <c r="H28" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>37</v>
       </c>
-      <c r="E29" s="3">
-        <v>144</v>
-      </c>
-      <c r="F29" s="3">
-        <v>92</v>
-      </c>
-      <c r="G29" s="3">
-        <v>639</v>
-      </c>
-      <c r="H29" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>35</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>165</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>37</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3">
-        <f t="shared" ref="C33:H33" si="15">SUM(C22:C31)</f>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:H33" si="17">SUM(C22:C31)</f>
         <v>619</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="15"/>
+      <c r="D33" s="6">
+        <f t="shared" si="17"/>
         <v>1365</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" si="15"/>
+      <c r="E33" s="6">
+        <f t="shared" si="17"/>
         <v>1793</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="15"/>
+      <c r="F33" s="6">
+        <f t="shared" si="17"/>
         <v>2941</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="15"/>
+      <c r="G33" s="6">
+        <f t="shared" si="17"/>
         <v>10158</v>
       </c>
-      <c r="H33" s="3">
-        <f t="shared" si="15"/>
+      <c r="H33" s="6">
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
     </row>
@@ -1594,7 +1719,7 @@
     <sortCondition ref="B3:B15"/>
   </sortState>
   <conditionalFormatting sqref="M3:M14">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1608,7 +1733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1622,7 +1747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1631,6 +1756,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E2C3812D-A00B-4F37-9760-5F6166653B15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF5353"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{704D0563-69EE-4283-A80A-765A26B0E9B8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1673,6 +1812,17 @@
           </x14:cfRule>
           <xm:sqref>H3:H14</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{704D0563-69EE-4283-A80A-765A26B0E9B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P3:P14</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F8F2E-C7B7-4304-927F-B98A6F2E6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE9231-8AEB-41C6-B8AB-CA80362E0D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAEAA1E-5B6B-4FC7-9FE5-6150E51A1A48}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -667,11 +667,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f t="shared" ref="I1:I14" si="1">H20</f>
+        <f t="shared" ref="I2:I14" si="1">H20</f>
         <v>(non-Adopted)</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f t="shared" ref="J1:J14" si="2">I2</f>
+        <f t="shared" ref="J2:J14" si="2">I2</f>
         <v>(non-Adopted)</v>
       </c>
       <c r="K2" s="4"/>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CE9231-8AEB-41C6-B8AB-CA80362E0D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC694430-1303-4B8C-8D7D-F799624B4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -187,7 +187,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +197,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +254,12 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,6 +268,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -565,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A3" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -685,10 +704,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4">
@@ -743,10 +762,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4">
@@ -801,10 +820,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
@@ -859,10 +878,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="11">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
@@ -917,10 +936,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
@@ -1035,10 +1054,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="10">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
@@ -1093,10 +1112,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="10">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4">
@@ -1379,7 +1398,9 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5">
+        <v>20250506</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="9">
         <f t="shared" si="7"/>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC694430-1303-4B8C-8D7D-F799624B4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9758B-4E92-4B44-A2E3-BC706AC7C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -268,9 +268,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5353"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -704,59 +704,60 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:G3" si="3">D21</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="9">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>8</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="9">
         <f t="shared" ref="M3:M14" si="4">L3</f>
         <v>8</v>
       </c>
-      <c r="O3" s="4">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="9">
         <f>O3</f>
         <v>0</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9758B-4E92-4B44-A2E3-BC706AC7C295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278124EB-DB40-4BB6-96D4-F3E3C6A3E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -763,60 +763,60 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="2">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:G4" si="5">C22</f>
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>31</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="9">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:O10" si="6">I4</f>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4:P14" si="7">O4</f>
+      <c r="P4" s="9">
+        <f t="shared" ref="P4:P14" si="6">O4</f>
         <v>1</v>
       </c>
     </row>
@@ -828,23 +828,23 @@
         <v>8</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:G5" si="8">C23</f>
+        <f t="shared" ref="C5:G5" si="7">C23</f>
         <v>7</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="H5" s="8">
@@ -870,11 +870,11 @@
         <v>57</v>
       </c>
       <c r="O5" s="4">
+        <f t="shared" ref="O4:O10" si="8">I5</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -928,11 +928,11 @@
         <v>48</v>
       </c>
       <c r="O6" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -986,11 +986,11 @@
         <v>65</v>
       </c>
       <c r="O7" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -1104,11 +1104,11 @@
         <v>306</v>
       </c>
       <c r="O9" s="4">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -1162,11 +1162,11 @@
         <v>589</v>
       </c>
       <c r="O10" s="4">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="7"/>
         <v>24</v>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\Files\A35\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278124EB-DB40-4BB6-96D4-F3E3C6A3E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C1369-C102-49E8-8D93-1432931AF696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,9 @@
         <f t="shared" ref="M3:M14" si="4">L3</f>
         <v>8</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5">
+        <v>20250509</v>
+      </c>
       <c r="O3" s="5">
         <f>I3</f>
         <v>0</v>
@@ -811,7 +813,9 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5">
+        <v>20250516</v>
+      </c>
       <c r="O4" s="5">
         <v>1</v>
       </c>
@@ -870,7 +874,7 @@
         <v>57</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O4:O10" si="8">I5</f>
+        <f t="shared" ref="O5:O10" si="8">I5</f>
         <v>3</v>
       </c>
       <c r="P5" s="8">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C1369-C102-49E8-8D93-1432931AF696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA555C-257A-428A-97D2-F01CD7523C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -825,59 +825,62 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="2">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:G5" si="7">C23</f>
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>57</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="9">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="O5" s="4">
+      <c r="N5" s="5">
+        <v>20250522</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" ref="O5:O10" si="8">I5</f>
         <v>3</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AA555C-257A-428A-97D2-F01CD7523C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02098585-CDDE-4E07-9355-7DED3B16CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -596,13 +596,14 @@
     <col min="6" max="6" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -817,11 +818,11 @@
         <v>20250516</v>
       </c>
       <c r="O4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" ref="P4:P14" si="6">O4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -886,59 +887,60 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="2">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f t="shared" ref="C6:G6" si="9">C24</f>
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>48</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="O6" s="4">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02098585-CDDE-4E07-9355-7DED3B16CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F569308-BAC3-42D1-9348-E1DF58D3D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -875,7 +875,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="5">
-        <v>20250522</v>
+        <v>20250528</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" ref="O5:O10" si="8">I5</f>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F569308-BAC3-42D1-9348-E1DF58D3D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735356FE-A681-4BFB-94BF-59F68C8D08E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -187,7 +187,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +206,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,9 +249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +575,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -935,72 +926,73 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <v>20250530</v>
+      </c>
       <c r="O6" s="5">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="2">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f t="shared" ref="C7:G7" si="10">C25</f>
         <v>21</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="10"/>
         <v>386</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>65</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>5</v>
+      </c>
+      <c r="P7" s="9">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735356FE-A681-4BFB-94BF-59F68C8D08E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50494C97-B721-48A3-83DA-C90877148DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -927,14 +927,14 @@
         <v>48</v>
       </c>
       <c r="N6" s="5">
-        <v>20250530</v>
+        <v>20250603</v>
       </c>
       <c r="O6" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -986,7 +986,9 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>20250610</v>
+      </c>
       <c r="O7" s="5">
         <v>5</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50494C97-B721-48A3-83DA-C90877148DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC2372-1C1B-4AAA-9E34-9DF9A5F65ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +251,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,6 +268,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5353"/>
@@ -575,7 +585,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -590,7 +600,7 @@
     <col min="9" max="9" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
@@ -990,11 +1000,11 @@
         <v>20250610</v>
       </c>
       <c r="O7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1050,11 +1060,11 @@
         <v>20250324</v>
       </c>
       <c r="O8" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1064,62 +1074,63 @@
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <f t="shared" ref="C9:G9" si="12">C27</f>
         <v>141</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <f t="shared" si="12"/>
         <v>136</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <f t="shared" si="12"/>
         <v>393</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="11">
         <f t="shared" si="12"/>
         <v>310</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="11">
         <f t="shared" si="12"/>
         <v>1043</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="11">
         <v>4</v>
       </c>
-      <c r="L9" s="4">
-        <v>306</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="L9" s="11">
+        <v>309</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="4"/>
-        <v>306</v>
-      </c>
-      <c r="O9" s="4">
+        <v>309</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="12">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4">
@@ -1158,11 +1169,11 @@
         <v>10</v>
       </c>
       <c r="L10" s="4">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="4"/>
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="8"/>
@@ -1276,11 +1287,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N12" s="5">
         <v>20250506</v>
@@ -1409,6 +1420,12 @@
       <c r="P14" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="4">
+        <f>SUM(L3:L14)</f>
+        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC2372-1C1B-4AAA-9E34-9DF9A5F65ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC2BE3-8A59-48C1-B6EC-8B921EAB8CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
         <v>65</v>
       </c>
       <c r="N7" s="5">
-        <v>20250610</v>
+        <v>20250616</v>
       </c>
       <c r="O7" s="5">
         <v>6</v>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC2BE3-8A59-48C1-B6EC-8B921EAB8CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17196CE-2A0D-45F9-A0F3-9FEFEDAAD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\X\ND\A35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17196CE-2A0D-45F9-A0F3-9FEFEDAAD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2879A060-18B5-40F2-83F0-CD782CF07C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3F13E08-64ED-4767-9D40-D1E60D65A10A}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="11">
         <v>309</v>
@@ -1118,12 +1118,11 @@
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1227,11 +1226,11 @@
         <v>5</v>
       </c>
       <c r="L11" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N11" s="5">
         <v>20250425</v>
@@ -1425,7 +1424,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L15" s="4">
         <f>SUM(L3:L14)</f>
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
